--- a/productbacklog_あ_20180625.xlsx
+++ b/productbacklog_あ_20180625.xlsx
@@ -15,6 +15,9 @@
     <sheet name="プロダクト" sheetId="1" r:id="rId1"/>
     <sheet name="スプリント" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">スプリント!$B$1:$H$88</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2416,14 +2419,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2903,10 +2906,10 @@
       <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2926,8 +2929,8 @@
       <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
@@ -2945,8 +2948,8 @@
       <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
@@ -2964,8 +2967,8 @@
       <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="39" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
@@ -2983,8 +2986,8 @@
       <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
@@ -3846,10 +3849,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3886,7 +3890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3899,11 +3903,11 @@
       <c r="D2" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3916,11 +3920,11 @@
       <c r="D3" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3933,11 +3937,11 @@
       <c r="D4" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3950,11 +3954,11 @@
       <c r="D5" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3967,11 +3971,11 @@
       <c r="D6" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3984,11 +3988,11 @@
       <c r="D7" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4001,11 +4005,11 @@
       <c r="D8" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4018,11 +4022,11 @@
       <c r="D9" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4035,7 +4039,7 @@
       <c r="D10" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>43297</v>
       </c>
     </row>
@@ -4052,11 +4056,11 @@
       <c r="D11" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>43283</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4069,7 +4073,7 @@
       <c r="D12" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>43297</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -4089,14 +4093,14 @@
       <c r="D13" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>43283</v>
       </c>
       <c r="H13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4109,11 +4113,11 @@
       <c r="D14" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4126,11 +4130,11 @@
       <c r="D15" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4143,11 +4147,11 @@
       <c r="D16" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4160,11 +4164,11 @@
       <c r="D17" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4177,14 +4181,14 @@
       <c r="D18" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>43304</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4197,11 +4201,11 @@
       <c r="D19" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4214,14 +4218,14 @@
       <c r="D20" t="s">
         <v>216</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>43304</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4234,11 +4238,11 @@
       <c r="D21" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4251,7 +4255,7 @@
       <c r="D22" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>43304</v>
       </c>
     </row>
@@ -4268,11 +4272,11 @@
       <c r="D23" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>43283</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4285,11 +4289,11 @@
       <c r="D24" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4302,11 +4306,11 @@
       <c r="D25" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4319,11 +4323,11 @@
       <c r="D26" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4336,11 +4340,11 @@
       <c r="D27" t="s">
         <v>216</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4353,11 +4357,11 @@
       <c r="D28" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4370,11 +4374,11 @@
       <c r="D29" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4387,11 +4391,11 @@
       <c r="D30" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4404,11 +4408,11 @@
       <c r="D31" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4421,11 +4425,11 @@
       <c r="D32" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4438,11 +4442,11 @@
       <c r="D33" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4455,11 +4459,11 @@
       <c r="D34" t="s">
         <v>218</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4472,11 +4476,11 @@
       <c r="D35" t="s">
         <v>218</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4489,11 +4493,11 @@
       <c r="D36" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4506,11 +4510,11 @@
       <c r="D37" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4523,11 +4527,11 @@
       <c r="D38" t="s">
         <v>217</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4540,11 +4544,11 @@
       <c r="D39" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4557,11 +4561,11 @@
       <c r="D40" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4574,11 +4578,11 @@
       <c r="D41" t="s">
         <v>217</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4591,11 +4595,11 @@
       <c r="D42" t="s">
         <v>218</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4608,14 +4612,14 @@
       <c r="D43" t="s">
         <v>218</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="13">
         <v>43290</v>
       </c>
       <c r="H43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4628,14 +4632,14 @@
       <c r="D44" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="13">
         <v>43290</v>
       </c>
       <c r="H44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4648,14 +4652,14 @@
       <c r="D45" t="s">
         <v>218</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="13">
         <v>43290</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="58.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="58.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4668,14 +4672,14 @@
       <c r="D46" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="13">
         <v>43297</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4688,14 +4692,14 @@
       <c r="D47" t="s">
         <v>218</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="13">
         <v>43290</v>
       </c>
       <c r="H47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4708,14 +4712,14 @@
       <c r="D48" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="13">
         <v>43290</v>
       </c>
       <c r="H48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4728,14 +4732,14 @@
       <c r="D49" t="s">
         <v>218</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="13">
         <v>43290</v>
       </c>
       <c r="H49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4748,11 +4752,11 @@
       <c r="D50" t="s">
         <v>218</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="13">
         <v>43290</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4765,14 +4769,14 @@
       <c r="D51" t="s">
         <v>218</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="13">
         <v>43290</v>
       </c>
       <c r="H51" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4785,14 +4789,14 @@
       <c r="D52" t="s">
         <v>218</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="13">
         <v>43290</v>
       </c>
       <c r="H52" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4805,14 +4809,14 @@
       <c r="D53" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="13">
         <v>43304</v>
       </c>
       <c r="H53" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="39" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" ht="39" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4825,14 +4829,14 @@
       <c r="D54" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="13">
         <v>43297</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4845,11 +4849,11 @@
       <c r="D55" t="s">
         <v>216</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4862,11 +4866,11 @@
       <c r="D56" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4879,11 +4883,11 @@
       <c r="D57" t="s">
         <v>216</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4896,11 +4900,11 @@
       <c r="D58" t="s">
         <v>216</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4913,11 +4917,11 @@
       <c r="D59" t="s">
         <v>216</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="13">
         <v>43297</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4930,14 +4934,14 @@
       <c r="D60" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="13">
         <v>43297</v>
       </c>
       <c r="H60" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4950,7 +4954,7 @@
       <c r="D61" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="13">
         <v>43290</v>
       </c>
       <c r="H61" t="s">
@@ -4970,7 +4974,7 @@
       <c r="D62" t="s">
         <v>216</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="13">
         <v>43283</v>
       </c>
       <c r="H62" t="s">
@@ -4990,14 +4994,14 @@
       <c r="D63" t="s">
         <v>216</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="13">
         <v>43283</v>
       </c>
       <c r="H63" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5010,14 +5014,14 @@
       <c r="D64" t="s">
         <v>216</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="13">
         <v>43290</v>
       </c>
       <c r="H64" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5030,14 +5034,14 @@
       <c r="D65" t="s">
         <v>216</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="13">
         <v>43290</v>
       </c>
       <c r="H65" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5050,14 +5054,14 @@
       <c r="D66" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="13">
         <v>43290</v>
       </c>
       <c r="H66" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5070,7 +5074,7 @@
       <c r="D67" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="13">
         <v>43297</v>
       </c>
       <c r="H67" t="s">
@@ -5088,13 +5092,13 @@
         <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="15">
-        <v>43304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+      <c r="E68" s="13">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5107,7 +5111,7 @@
       <c r="D69" t="s">
         <v>216</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="13">
         <v>43304</v>
       </c>
     </row>
@@ -5122,13 +5126,13 @@
         <v>147</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E70" s="15">
-        <v>43304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+      <c r="E70" s="13">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5141,11 +5145,11 @@
       <c r="D71" t="s">
         <v>216</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5158,14 +5162,14 @@
       <c r="D72" t="s">
         <v>216</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="13">
         <v>43304</v>
       </c>
       <c r="H72" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5178,7 +5182,7 @@
       <c r="D73" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="13">
         <v>43304</v>
       </c>
       <c r="H73" t="s">
@@ -5196,13 +5200,13 @@
         <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="15">
-        <v>43304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+      <c r="E74" s="13">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5215,11 +5219,11 @@
       <c r="D75" t="s">
         <v>216</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="13">
         <v>43304</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5232,14 +5236,14 @@
       <c r="D76" t="s">
         <v>217</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="13">
         <v>43290</v>
       </c>
       <c r="H76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5252,14 +5256,14 @@
       <c r="D77" t="s">
         <v>217</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="13">
         <v>43290</v>
       </c>
       <c r="H77" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5272,14 +5276,14 @@
       <c r="D78" t="s">
         <v>218</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="13">
         <v>43297</v>
       </c>
       <c r="H78" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5292,14 +5296,14 @@
       <c r="D79" t="s">
         <v>217</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="13">
         <v>43290</v>
       </c>
       <c r="H79" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5312,7 +5316,7 @@
       <c r="D80" t="s">
         <v>217</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="13">
         <v>43290</v>
       </c>
       <c r="H80" t="s">
@@ -5332,11 +5336,11 @@
       <c r="D81" t="s">
         <v>216</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="13">
         <v>43283</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5349,14 +5353,14 @@
       <c r="D82" t="s">
         <v>217</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="13">
         <v>43297</v>
       </c>
       <c r="H82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5369,14 +5373,14 @@
       <c r="D83" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="13">
         <v>43297</v>
       </c>
       <c r="H83" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5389,14 +5393,14 @@
       <c r="D84" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="13">
         <v>43297</v>
       </c>
       <c r="H84" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5409,14 +5413,14 @@
       <c r="D85" t="s">
         <v>218</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="13">
         <v>43297</v>
       </c>
       <c r="H85" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5429,14 +5433,14 @@
       <c r="D86" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="13">
         <v>43304</v>
       </c>
       <c r="H86" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5449,14 +5453,14 @@
       <c r="D87" t="s">
         <v>218</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="13">
         <v>43297</v>
       </c>
       <c r="H87" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5469,7 +5473,7 @@
       <c r="D88" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="13">
         <v>43297</v>
       </c>
       <c r="H88" t="s">
@@ -5477,6 +5481,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:H88">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2018" month="7" day="2" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
